--- a/backend/invoice.xlsx
+++ b/backend/invoice.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>INV Date</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Cosmo Films Limited</t>
+  </si>
+  <si>
+    <t>29AADCB2230M1ZP</t>
+  </si>
+  <si>
+    <t>18% (IGST)</t>
+  </si>
+  <si>
+    <t>Mobile Apps,Software Update,Desktop Applications</t>
   </si>
   <si>
     <t/>
@@ -85,9 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
@@ -472,35 +488,70 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
+      <c r="A2" s="2">
+        <v>44416.354908865746</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>188900</v>
+      </c>
+      <c r="H2">
+        <v>34002</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>222902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G3">
+        <v>188900</v>
+      </c>
+      <c r="H3">
+        <v>34002</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+      <c r="K3">
+        <v>222902</v>
       </c>
     </row>
   </sheetData>
